--- a/public/import/export_pemilih.xlsx
+++ b/public/import/export_pemilih.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fahmi\Dev\evote\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F811AFD-722D-471F-99E9-58B1A5727E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8238044-D17C-44E6-965A-5D97996B0946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA4F098F-8E83-45CE-A74A-42A1E42F884C}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7800" xr2:uid="{FA4F098F-8E83-45CE-A74A-42A1E42F884C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,19 +39,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>NISN</t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Jurusan</t>
-  </si>
-  <si>
-    <t>Kelas</t>
-  </si>
-  <si>
     <t>Token</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
   </si>
 </sst>
 </file>
@@ -458,7 +457,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
